--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Tgfb2-Acvr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Tgfb2-Acvr1.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.465615333333333</v>
+        <v>1.609586333333333</v>
       </c>
       <c r="H2">
-        <v>4.396846</v>
+        <v>4.828759</v>
       </c>
       <c r="I2">
-        <v>0.04672291954663727</v>
+        <v>0.05107819292772156</v>
       </c>
       <c r="J2">
-        <v>0.04672291954663728</v>
+        <v>0.05107819292772156</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.695610666666666</v>
+        <v>4.621579</v>
       </c>
       <c r="N2">
-        <v>14.086832</v>
+        <v>13.864737</v>
       </c>
       <c r="O2">
-        <v>0.1802066564018305</v>
+        <v>0.1778708528171788</v>
       </c>
       <c r="P2">
-        <v>0.1802066564018305</v>
+        <v>0.1778708528171788</v>
       </c>
       <c r="Q2">
-        <v>6.881958992430222</v>
+        <v>7.438830396820332</v>
       </c>
       <c r="R2">
-        <v>61.937630931872</v>
+        <v>66.949473571383</v>
       </c>
       <c r="S2">
-        <v>0.008419781108831233</v>
+        <v>0.009085321736414225</v>
       </c>
       <c r="T2">
-        <v>0.008419781108831235</v>
+        <v>0.009085321736414225</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.465615333333333</v>
+        <v>1.609586333333333</v>
       </c>
       <c r="H3">
-        <v>4.396846</v>
+        <v>4.828759</v>
       </c>
       <c r="I3">
-        <v>0.04672291954663727</v>
+        <v>0.05107819292772156</v>
       </c>
       <c r="J3">
-        <v>0.04672291954663728</v>
+        <v>0.05107819292772156</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,25 +617,25 @@
         <v>15.51448033333333</v>
       </c>
       <c r="N3">
-        <v>46.54344099999999</v>
+        <v>46.543441</v>
       </c>
       <c r="O3">
-        <v>0.5954098039960916</v>
+        <v>0.5971062807549863</v>
       </c>
       <c r="P3">
-        <v>0.5954098039960916</v>
+        <v>0.5971062807549863</v>
       </c>
       <c r="Q3">
-        <v>22.73826026523177</v>
+        <v>24.97189551330211</v>
       </c>
       <c r="R3">
-        <v>204.644342387086</v>
+        <v>224.747059619719</v>
       </c>
       <c r="S3">
-        <v>0.02781928436938845</v>
+        <v>0.03049910980675747</v>
       </c>
       <c r="T3">
-        <v>0.02781928436938846</v>
+        <v>0.03049910980675747</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.465615333333333</v>
+        <v>1.609586333333333</v>
       </c>
       <c r="H4">
-        <v>4.396846</v>
+        <v>4.828759</v>
       </c>
       <c r="I4">
-        <v>0.04672291954663727</v>
+        <v>0.05107819292772156</v>
       </c>
       <c r="J4">
-        <v>0.04672291954663728</v>
+        <v>0.05107819292772156</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>17.540158</v>
       </c>
       <c r="O4">
-        <v>0.2243835396020779</v>
+        <v>0.2250228664278349</v>
       </c>
       <c r="P4">
-        <v>0.2243835396020779</v>
+        <v>0.2250228664278349</v>
       </c>
       <c r="Q4">
-        <v>8.569041504629777</v>
+        <v>9.41079953376911</v>
       </c>
       <c r="R4">
-        <v>77.12137354166799</v>
+        <v>84.69719580392199</v>
       </c>
       <c r="S4">
-        <v>0.01048385406841758</v>
+        <v>0.01149376138454987</v>
       </c>
       <c r="T4">
-        <v>0.01048385406841759</v>
+        <v>0.01149376138454987</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>56.64711800000001</v>
       </c>
       <c r="I5">
-        <v>0.6019584804341267</v>
+        <v>0.5992082897496871</v>
       </c>
       <c r="J5">
-        <v>0.6019584804341268</v>
+        <v>0.5992082897496871</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.695610666666666</v>
+        <v>4.621579</v>
       </c>
       <c r="N5">
-        <v>14.086832</v>
+        <v>13.864737</v>
       </c>
       <c r="O5">
-        <v>0.1802066564018305</v>
+        <v>0.1778708528171788</v>
       </c>
       <c r="P5">
-        <v>0.1802066564018305</v>
+        <v>0.1778708528171788</v>
       </c>
       <c r="Q5">
-        <v>88.66427050557512</v>
+        <v>87.26637698644068</v>
       </c>
       <c r="R5">
-        <v>797.9784345501761</v>
+        <v>785.3973928779661</v>
       </c>
       <c r="S5">
-        <v>0.1084769250517607</v>
+        <v>0.1065816895129</v>
       </c>
       <c r="T5">
-        <v>0.1084769250517607</v>
+        <v>0.1065816895129</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>56.64711800000001</v>
       </c>
       <c r="I6">
-        <v>0.6019584804341267</v>
+        <v>0.5992082897496871</v>
       </c>
       <c r="J6">
-        <v>0.6019584804341268</v>
+        <v>0.5992082897496871</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,13 +803,13 @@
         <v>15.51448033333333</v>
       </c>
       <c r="N6">
-        <v>46.54344099999999</v>
+        <v>46.543441</v>
       </c>
       <c r="O6">
-        <v>0.5954098039960916</v>
+        <v>0.5971062807549863</v>
       </c>
       <c r="P6">
-        <v>0.5954098039960916</v>
+        <v>0.5971062807549863</v>
       </c>
       <c r="Q6">
         <v>292.9501993836709</v>
@@ -818,10 +818,10 @@
         <v>2636.551794453038</v>
       </c>
       <c r="S6">
-        <v>0.3584119808490685</v>
+        <v>0.3577910332899918</v>
       </c>
       <c r="T6">
-        <v>0.3584119808490686</v>
+        <v>0.3577910332899918</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>56.64711800000001</v>
       </c>
       <c r="I7">
-        <v>0.6019584804341267</v>
+        <v>0.5992082897496871</v>
       </c>
       <c r="J7">
-        <v>0.6019584804341268</v>
+        <v>0.5992082897496871</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>17.540158</v>
       </c>
       <c r="O7">
-        <v>0.2243835396020779</v>
+        <v>0.2250228664278349</v>
       </c>
       <c r="P7">
-        <v>0.2243835396020779</v>
+        <v>0.2250228664278349</v>
       </c>
       <c r="Q7">
         <v>110.3999333294049</v>
@@ -880,10 +880,10 @@
         <v>993.599399964644</v>
       </c>
       <c r="S7">
-        <v>0.1350695745332975</v>
+        <v>0.1348355669467953</v>
       </c>
       <c r="T7">
-        <v>0.1350695745332975</v>
+        <v>0.1348355669467953</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,13 +909,13 @@
         <v>11.020243</v>
       </c>
       <c r="H8">
-        <v>33.06072899999999</v>
+        <v>33.060729</v>
       </c>
       <c r="I8">
-        <v>0.351318600019236</v>
+        <v>0.3497135173225914</v>
       </c>
       <c r="J8">
-        <v>0.351318600019236</v>
+        <v>0.3497135173225914</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.695610666666666</v>
+        <v>4.621579</v>
       </c>
       <c r="N8">
-        <v>14.086832</v>
+        <v>13.864737</v>
       </c>
       <c r="O8">
-        <v>0.1802066564018305</v>
+        <v>0.1778708528171788</v>
       </c>
       <c r="P8">
-        <v>0.1802066564018305</v>
+        <v>0.1778708528171788</v>
       </c>
       <c r="Q8">
-        <v>51.74677058005866</v>
+        <v>50.930923623697</v>
       </c>
       <c r="R8">
-        <v>465.7209352205279</v>
+        <v>458.378312613273</v>
       </c>
       <c r="S8">
-        <v>0.06330995024123859</v>
+        <v>0.06220384156786456</v>
       </c>
       <c r="T8">
-        <v>0.06330995024123859</v>
+        <v>0.06220384156786458</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,13 +971,13 @@
         <v>11.020243</v>
       </c>
       <c r="H9">
-        <v>33.06072899999999</v>
+        <v>33.060729</v>
       </c>
       <c r="I9">
-        <v>0.351318600019236</v>
+        <v>0.3497135173225914</v>
       </c>
       <c r="J9">
-        <v>0.351318600019236</v>
+        <v>0.3497135173225914</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,25 +989,25 @@
         <v>15.51448033333333</v>
       </c>
       <c r="N9">
-        <v>46.54344099999999</v>
+        <v>46.543441</v>
       </c>
       <c r="O9">
-        <v>0.5954098039960916</v>
+        <v>0.5971062807549863</v>
       </c>
       <c r="P9">
-        <v>0.5954098039960916</v>
+        <v>0.5971062807549863</v>
       </c>
       <c r="Q9">
-        <v>170.9733432920543</v>
+        <v>170.9733432920544</v>
       </c>
       <c r="R9">
         <v>1538.760089628489</v>
       </c>
       <c r="S9">
-        <v>0.2091785387776346</v>
+        <v>0.208816137658237</v>
       </c>
       <c r="T9">
-        <v>0.2091785387776346</v>
+        <v>0.208816137658237</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,13 +1033,13 @@
         <v>11.020243</v>
       </c>
       <c r="H10">
-        <v>33.06072899999999</v>
+        <v>33.060729</v>
       </c>
       <c r="I10">
-        <v>0.351318600019236</v>
+        <v>0.3497135173225914</v>
       </c>
       <c r="J10">
-        <v>0.351318600019236</v>
+        <v>0.3497135173225914</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,22 +1054,22 @@
         <v>17.540158</v>
       </c>
       <c r="O10">
-        <v>0.2243835396020779</v>
+        <v>0.2250228664278349</v>
       </c>
       <c r="P10">
-        <v>0.2243835396020779</v>
+        <v>0.2250228664278349</v>
       </c>
       <c r="Q10">
-        <v>64.43226780613132</v>
+        <v>64.43226780613134</v>
       </c>
       <c r="R10">
-        <v>579.8904102551819</v>
+        <v>579.890410255182</v>
       </c>
       <c r="S10">
-        <v>0.0788301110003628</v>
+        <v>0.07869353809648984</v>
       </c>
       <c r="T10">
-        <v>0.0788301110003628</v>
+        <v>0.07869353809648984</v>
       </c>
     </row>
   </sheetData>
